--- a/ZSS/resources/Purva Vihar/FY2014-15/11-November-2014.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/11-November-2014.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arathod\Desktop\Purva Vihar\FY2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\PurvaVihar\ACP_PV\ZSS\resources\Purva Vihar\FY2014-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A-Wing" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>Name of Flat Holder</t>
   </si>
@@ -554,9 +554,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">      /11/14</t>
-  </si>
-  <si>
     <t>Clear Dues to Avail Annual Maintenace Scheme.</t>
   </si>
   <si>
@@ -567,6 +564,12 @@
   </si>
   <si>
     <t>Annual till 03-15</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Cheque</t>
   </si>
 </sst>
 </file>
@@ -990,22 +993,22 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1057,24 +1060,6 @@
       <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1103,6 +1088,24 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
@@ -1159,48 +1162,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="36">
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="36">
+  <tableColumns count="13">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="35"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="34"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="3">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="0">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="27"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="26"/>
+    <tableColumn id="8" name="Date" dataDxfId="21"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="20"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
+    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="25">
-  <tableColumns count="12">
-    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="24"/>
-    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="23"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="19">
+  <tableColumns count="13">
+    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="18"/>
+    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="17"/>
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="3">
       <calculatedColumnFormula>BWing[[#This Row],[Current Month Balance]]+BWing[[#This Row],[Last Month''s Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="11" name="Remaining Balance" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Remaining Balance" dataDxfId="11" totalsRowDxfId="0">
       <calculatedColumnFormula>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Date" dataDxfId="10"/>
     <tableColumn id="13" name="Receipt No." dataDxfId="9"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
+    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1508,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,7 +1535,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
@@ -1544,7 +1549,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1558,7 +1563,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -1571,7 +1576,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -1585,9 +1590,9 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
@@ -1595,9 +1600,9 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -1609,7 +1614,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1646,8 +1651,11 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1674,12 +1682,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>3700</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>82</v>
+      <c r="I9" s="19">
+        <v>41961</v>
       </c>
       <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1706,12 +1717,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>350</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>82</v>
+      <c r="I10" s="19">
+        <v>41961</v>
       </c>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1738,12 +1752,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>82</v>
+      <c r="I11" s="19">
+        <v>41961</v>
       </c>
       <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1770,12 +1787,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>82</v>
+      <c r="I12" s="19">
+        <v>41964</v>
       </c>
       <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1802,13 +1822,16 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>300</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>82</v>
+      <c r="I13" s="19">
+        <v>41966</v>
       </c>
       <c r="J13" s="22"/>
       <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1835,12 +1858,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>82</v>
+      <c r="I14" s="19">
+        <v>41961</v>
       </c>
       <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -1867,15 +1893,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-800</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>82</v>
+      <c r="I15" s="19">
+        <v>41944</v>
       </c>
       <c r="J15" s="22"/>
       <c r="L15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -1902,12 +1931,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>82</v>
+      <c r="I16" s="19">
+        <v>41961</v>
       </c>
       <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -1934,12 +1966,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>82</v>
+      <c r="I17" s="19">
+        <v>41966</v>
       </c>
       <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -1966,12 +2001,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>82</v>
+      <c r="I18" s="19">
+        <v>41961</v>
       </c>
       <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -1998,12 +2036,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>82</v>
+      <c r="I19" s="19">
+        <v>41961</v>
       </c>
       <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>24</v>
       </c>
@@ -2011,14 +2052,14 @@
         <v>65</v>
       </c>
       <c r="C20" s="8">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="D20" s="8">
         <v>200</v>
       </c>
       <c r="E20" s="8">
         <f>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</f>
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
@@ -2028,14 +2069,17 @@
       </c>
       <c r="H20" s="8">
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
-        <v>650</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>82</v>
+        <v>250</v>
+      </c>
+      <c r="I20" s="19">
+        <v>41961</v>
       </c>
       <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>25</v>
       </c>
@@ -2062,15 +2106,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-800</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>82</v>
+      <c r="I21" s="19">
+        <v>41944</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="M21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>26</v>
       </c>
@@ -2097,12 +2144,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>82</v>
+      <c r="I22" s="19">
+        <v>41961</v>
       </c>
       <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>31</v>
       </c>
@@ -2129,12 +2179,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7360</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>82</v>
+      <c r="I23" s="19">
+        <v>41967</v>
       </c>
       <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>32</v>
       </c>
@@ -2161,15 +2214,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-800</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>82</v>
+      <c r="I24" s="19">
+        <v>41944</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="M24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>33</v>
       </c>
@@ -2196,12 +2252,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>1550</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>82</v>
+      <c r="I25" s="19">
+        <v>41961</v>
       </c>
       <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>34</v>
       </c>
@@ -2228,15 +2287,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-300</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>82</v>
+      <c r="I26" s="19">
+        <v>41944</v>
       </c>
       <c r="J26" s="22"/>
       <c r="L26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2246,7 +2308,7 @@
       </c>
       <c r="C27" s="8">
         <f>SUBTOTAL(109,AWing[Last Month''s Balance])</f>
-        <v>9920</v>
+        <v>9520</v>
       </c>
       <c r="D27" s="8">
         <f>SUBTOTAL(109,AWing[Current Month Balance])</f>
@@ -2254,7 +2316,7 @@
       </c>
       <c r="E27" s="8">
         <f>SUBTOTAL(109,AWing[Total Balance])</f>
-        <v>14220</v>
+        <v>13820</v>
       </c>
       <c r="F27" s="8">
         <f>SUBTOTAL(109,AWing[Penalty])</f>
@@ -2266,10 +2328,10 @@
       </c>
       <c r="H27" s="8">
         <f>SUBTOTAL(109,AWing[Remaining Balance])</f>
-        <v>11320</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10920</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>38</v>
       </c>
@@ -2285,7 +2347,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -2299,7 +2361,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -2319,7 +2381,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2363,10 +2425,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,11 +2443,11 @@
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
@@ -2399,7 +2461,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2413,7 +2475,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -2426,7 +2488,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2440,9 +2502,9 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
@@ -2450,7 +2512,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>81</v>
       </c>
@@ -2464,7 +2526,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2501,8 +2563,11 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2529,12 +2594,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>500</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>82</v>
+      <c r="I9" s="19">
+        <v>41961</v>
       </c>
       <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2561,12 +2629,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>82</v>
+      <c r="I10" s="19">
+        <v>41961</v>
       </c>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2593,12 +2664,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>40</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>82</v>
+      <c r="I11" s="19">
+        <v>41961</v>
       </c>
       <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2625,12 +2699,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-100</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>82</v>
+      <c r="I12" s="19">
+        <v>41961</v>
       </c>
       <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2657,12 +2734,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>82</v>
+      <c r="I13" s="19">
+        <v>41961</v>
       </c>
       <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2689,12 +2769,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2440</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>82</v>
+      <c r="I14" s="19">
+        <v>41961</v>
       </c>
       <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2721,12 +2804,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>82</v>
+      <c r="I15" s="19">
+        <v>41967</v>
       </c>
       <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2753,12 +2839,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>82</v>
+      <c r="I16" s="19">
+        <v>41961</v>
       </c>
       <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2785,12 +2874,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>82</v>
+      <c r="I17" s="19">
+        <v>41961</v>
       </c>
       <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>20</v>
       </c>
@@ -2817,12 +2909,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>82</v>
+      <c r="I18" s="19">
+        <v>41961</v>
       </c>
       <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>21</v>
       </c>
@@ -2849,12 +2944,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>82</v>
+      <c r="I19" s="19">
+        <v>41961</v>
       </c>
       <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>22</v>
       </c>
@@ -2881,14 +2979,17 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>1340</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>82</v>
+      <c r="I20" s="19">
+        <v>41961</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="P20" s="12"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>27</v>
       </c>
@@ -2915,16 +3016,19 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1100</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>82</v>
+      <c r="I21" s="19">
+        <v>41944</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>80</v>
       </c>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -2951,12 +3055,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>82</v>
+      <c r="I22" s="19">
+        <v>41961</v>
       </c>
       <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -2983,12 +3090,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>82</v>
+      <c r="I23" s="19">
+        <v>41969</v>
       </c>
       <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
@@ -3015,12 +3125,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>330</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>82</v>
+      <c r="I24" s="19">
+        <v>41961</v>
       </c>
       <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
@@ -3047,12 +3160,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>82</v>
+      <c r="I25" s="19">
+        <v>41961</v>
       </c>
       <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>30</v>
       </c>
@@ -3079,12 +3195,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>82</v>
+      <c r="I26" s="19">
+        <v>41961</v>
       </c>
       <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -3114,7 +3233,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>37</v>
       </c>
@@ -3130,7 +3249,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -3144,7 +3263,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -3164,7 +3283,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>

--- a/ZSS/resources/Purva Vihar/FY2014-15/11-November-2014.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/11-November-2014.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\PurvaVihar\ACP_PV\ZSS\resources\Purva Vihar\FY2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arathod\Desktop\Purva Vihar\FY2014-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="A-Wing" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>Name of Flat Holder</t>
   </si>
@@ -554,6 +554,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">      /11/14</t>
+  </si>
+  <si>
     <t>Clear Dues to Avail Annual Maintenace Scheme.</t>
   </si>
   <si>
@@ -564,12 +567,6 @@
   </si>
   <si>
     <t>Annual till 03-15</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Cheque</t>
   </si>
 </sst>
 </file>
@@ -993,22 +990,22 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1060,6 +1057,24 @@
       <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1088,24 +1103,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
@@ -1162,50 +1159,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="36">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="36">
+  <tableColumns count="12">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="35"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="34"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="3">
       <calculatedColumnFormula>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="0">
       <calculatedColumnFormula>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="21"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="20"/>
+    <tableColumn id="8" name="Date" dataDxfId="27"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="26"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
-    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="19">
-  <tableColumns count="13">
-    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="18"/>
-    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="17"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="25">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="24"/>
+    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="23"/>
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>BWing[[#This Row],[Current Month Balance]]+BWing[[#This Row],[Last Month''s Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Remaining Balance" dataDxfId="11" totalsRowDxfId="0">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="11" name="Remaining Balance" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Date" dataDxfId="10"/>
     <tableColumn id="13" name="Receipt No." dataDxfId="9"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
-    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1513,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:M27"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,7 +1530,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
@@ -1549,7 +1544,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1563,7 +1558,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -1576,7 +1571,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -1590,9 +1585,9 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
@@ -1600,9 +1595,9 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -1614,7 +1609,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1651,11 +1646,8 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1682,15 +1674,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>3700</v>
       </c>
-      <c r="I9" s="19">
-        <v>41961</v>
+      <c r="I9" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1717,15 +1706,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>350</v>
       </c>
-      <c r="I10" s="19">
-        <v>41961</v>
+      <c r="I10" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1752,15 +1738,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I11" s="19">
-        <v>41961</v>
+      <c r="I11" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1787,15 +1770,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19">
-        <v>41964</v>
+      <c r="I12" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1822,16 +1802,13 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>300</v>
       </c>
-      <c r="I13" s="19">
-        <v>41966</v>
+      <c r="I13" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J13" s="22"/>
       <c r="L13" s="23"/>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1858,15 +1835,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19">
-        <v>41961</v>
+      <c r="I14" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -1893,18 +1867,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-800</v>
       </c>
-      <c r="I15" s="19">
-        <v>41944</v>
+      <c r="I15" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J15" s="22"/>
       <c r="L15" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -1931,15 +1902,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19">
-        <v>41961</v>
+      <c r="I16" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -1966,15 +1934,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="19">
-        <v>41966</v>
+      <c r="I17" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -2001,15 +1966,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
-        <v>41961</v>
+      <c r="I18" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -2036,15 +1998,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19">
-        <v>41961</v>
+      <c r="I19" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>24</v>
       </c>
@@ -2052,14 +2011,14 @@
         <v>65</v>
       </c>
       <c r="C20" s="8">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="D20" s="8">
         <v>200</v>
       </c>
       <c r="E20" s="8">
         <f>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</f>
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
@@ -2069,17 +2028,14 @@
       </c>
       <c r="H20" s="8">
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
-        <v>250</v>
-      </c>
-      <c r="I20" s="19">
-        <v>41961</v>
+        <v>650</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>25</v>
       </c>
@@ -2106,18 +2062,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-800</v>
       </c>
-      <c r="I21" s="19">
-        <v>41944</v>
+      <c r="I21" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
-        <v>85</v>
-      </c>
-      <c r="M21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>26</v>
       </c>
@@ -2144,15 +2097,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I22" s="19">
-        <v>41961</v>
+      <c r="I22" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J22" s="22"/>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>31</v>
       </c>
@@ -2179,15 +2129,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7360</v>
       </c>
-      <c r="I23" s="19">
-        <v>41967</v>
+      <c r="I23" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J23" s="22"/>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>32</v>
       </c>
@@ -2214,18 +2161,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-800</v>
       </c>
-      <c r="I24" s="19">
-        <v>41944</v>
+      <c r="I24" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
-        <v>85</v>
-      </c>
-      <c r="M24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>33</v>
       </c>
@@ -2252,15 +2196,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>1550</v>
       </c>
-      <c r="I25" s="19">
-        <v>41961</v>
+      <c r="I25" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>34</v>
       </c>
@@ -2287,18 +2228,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-300</v>
       </c>
-      <c r="I26" s="19">
-        <v>41944</v>
+      <c r="I26" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J26" s="22"/>
       <c r="L26" t="s">
-        <v>84</v>
-      </c>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2308,7 +2246,7 @@
       </c>
       <c r="C27" s="8">
         <f>SUBTOTAL(109,AWing[Last Month''s Balance])</f>
-        <v>9520</v>
+        <v>9920</v>
       </c>
       <c r="D27" s="8">
         <f>SUBTOTAL(109,AWing[Current Month Balance])</f>
@@ -2316,7 +2254,7 @@
       </c>
       <c r="E27" s="8">
         <f>SUBTOTAL(109,AWing[Total Balance])</f>
-        <v>13820</v>
+        <v>14220</v>
       </c>
       <c r="F27" s="8">
         <f>SUBTOTAL(109,AWing[Penalty])</f>
@@ -2328,10 +2266,10 @@
       </c>
       <c r="H27" s="8">
         <f>SUBTOTAL(109,AWing[Remaining Balance])</f>
-        <v>10920</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>38</v>
       </c>
@@ -2347,7 +2285,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -2361,7 +2299,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -2381,7 +2319,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2425,10 +2363,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,11 +2381,11 @@
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
@@ -2461,7 +2399,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2475,7 +2413,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -2488,7 +2426,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2502,9 +2440,9 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
@@ -2512,7 +2450,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>81</v>
       </c>
@@ -2526,7 +2464,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2563,11 +2501,8 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2594,15 +2529,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>500</v>
       </c>
-      <c r="I9" s="19">
-        <v>41961</v>
+      <c r="I9" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2629,15 +2561,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I10" s="19">
-        <v>41961</v>
+      <c r="I10" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2664,15 +2593,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>40</v>
       </c>
-      <c r="I11" s="19">
-        <v>41961</v>
+      <c r="I11" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2699,15 +2625,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-100</v>
       </c>
-      <c r="I12" s="19">
-        <v>41961</v>
+      <c r="I12" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2734,15 +2657,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19">
-        <v>41961</v>
+      <c r="I13" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J13" s="22"/>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2769,15 +2689,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2440</v>
       </c>
-      <c r="I14" s="19">
-        <v>41961</v>
+      <c r="I14" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2804,15 +2721,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19">
-        <v>41967</v>
+      <c r="I15" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J15" s="22"/>
-      <c r="M15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2839,15 +2753,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19">
-        <v>41961</v>
+      <c r="I16" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2874,15 +2785,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I17" s="19">
-        <v>41961</v>
+      <c r="I17" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>20</v>
       </c>
@@ -2909,15 +2817,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
-        <v>41961</v>
+      <c r="I18" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>21</v>
       </c>
@@ -2944,15 +2849,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19">
-        <v>41961</v>
+      <c r="I19" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>22</v>
       </c>
@@ -2979,17 +2881,14 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>1340</v>
       </c>
-      <c r="I20" s="19">
-        <v>41961</v>
+      <c r="I20" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="12"/>
-      <c r="T20" s="12"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P20" s="12"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>27</v>
       </c>
@@ -3016,19 +2915,16 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1100</v>
       </c>
-      <c r="I21" s="19">
-        <v>41944</v>
+      <c r="I21" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>80</v>
       </c>
-      <c r="M21" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q21" s="12"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -3055,15 +2951,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19">
-        <v>41961</v>
+      <c r="I22" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J22" s="22"/>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -3090,15 +2983,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="19">
-        <v>41969</v>
+      <c r="I23" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J23" s="22"/>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
@@ -3125,15 +3015,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>330</v>
       </c>
-      <c r="I24" s="19">
-        <v>41961</v>
+      <c r="I24" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J24" s="22"/>
-      <c r="M24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
@@ -3160,15 +3047,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="19">
-        <v>41961</v>
+      <c r="I25" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>30</v>
       </c>
@@ -3195,15 +3079,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19">
-        <v>41961</v>
+      <c r="I26" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J26" s="22"/>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -3233,7 +3114,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>37</v>
       </c>
@@ -3249,7 +3130,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -3263,7 +3144,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -3283,7 +3164,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
